--- a/task/class17_191127/data/case.xlsx
+++ b/task/class17_191127/data/case.xlsx
@@ -29,21 +29,64 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -66,14 +109,40 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -88,77 +157,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -180,25 +180,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,157 +342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,6 +371,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -392,8 +416,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,56 +466,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -479,10 +479,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="21" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -491,133 +491,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="25" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="13" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="24" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="24" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="32" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,7 +975,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E2:E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>{"code": 1, "mgs": "所有的参数不能为空"}</t>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>已通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>{"code": 1, "mgs": "所有的参数不能为空"}</t>
+          <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>已通过</t>
+          <t>未通过</t>
         </is>
       </c>
     </row>
